--- a/BU Thesis Data.xlsx
+++ b/BU Thesis Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingningyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ReshmaSatish/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB906896-9DEB-DE4C-8B7B-0F5129B6CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B268DD-2266-5A48-B4B2-39D94F696879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="40" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{57D64691-856B-DC4F-978F-AF8DF8D4B8EF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{57D64691-856B-DC4F-978F-AF8DF8D4B8EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="200">
   <si>
     <t>Bone Specimen</t>
   </si>
@@ -505,9 +505,6 @@
     <t xml:space="preserve">HUMERUS </t>
   </si>
   <si>
-    <t>COMMINUTED/SEGMENTAL</t>
-  </si>
-  <si>
     <t>SEGMENTAL</t>
   </si>
   <si>
@@ -632,9 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve"> WAKE HACKLE</t>
-  </si>
-  <si>
-    <t>WAKE HACKLE?, BONE MIRROR</t>
   </si>
   <si>
     <t xml:space="preserve">Bisecting Fracture </t>
@@ -644,11 +638,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -666,15 +660,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +671,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,12 +710,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -750,7 +728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,10 +1027,10 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1068,18 +1046,18 @@
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>137</v>
@@ -1097,17 +1075,17 @@
         <v>141</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1122,10 +1100,10 @@
         <v>145</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>150</v>
@@ -1134,7 +1112,7 @@
         <v>147</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>149</v>
@@ -1142,9 +1120,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1159,7 +1137,7 @@
         <v>152</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>152</v>
@@ -1168,16 +1146,16 @@
         <v>152</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1185,27 +1163,27 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1216,15 +1194,15 @@
         <v>146</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1232,15 +1210,15 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -1248,15 +1226,15 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -1264,9 +1242,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -1274,9 +1252,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -1284,42 +1262,42 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -1327,7 +1305,6 @@
       <c r="D16" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1336,11 +1313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A26DB19-946D-5849-9D12-F89F99B53C3B}">
   <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
@@ -1355,42 +1332,42 @@
     <col min="11" max="11" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" customHeight="1">
+    <row r="1" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>166</v>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1402,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1422,7 @@
         <v>146</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>150</v>
@@ -1460,7 +1437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1472,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1492,7 @@
         <v>146</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>150</v>
@@ -1530,7 +1507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1542,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1582,10 +1559,10 @@
         <v>145</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>150</v>
@@ -1600,7 +1577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1597,7 @@
         <v>146</v>
       </c>
       <c r="G8" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>150</v>
@@ -1635,7 +1612,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1632,7 @@
         <v>146</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>150</v>
@@ -1664,13 +1641,13 @@
         <v>147</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1667,7 @@
         <v>146</v>
       </c>
       <c r="G10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
@@ -1705,7 +1682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1792,10 +1769,10 @@
         <v>145</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>150</v>
@@ -1810,7 +1787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1822,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +1927,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,10 +1944,10 @@
         <v>152</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>150</v>
@@ -1979,13 +1956,13 @@
         <v>152</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -2002,10 +1979,10 @@
         <v>145</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G19" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>152</v>
@@ -2020,7 +1997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2017,7 @@
         <v>146</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>150</v>
@@ -2055,7 +2032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2052,7 @@
         <v>146</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>150</v>
@@ -2090,7 +2067,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2107,10 +2084,10 @@
         <v>145</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>150</v>
@@ -2125,7 +2102,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2154,13 +2131,13 @@
         <v>143</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -2177,10 +2154,10 @@
         <v>145</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>150</v>
@@ -2189,13 +2166,13 @@
         <v>147</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2212,10 +2189,10 @@
         <v>145</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>150</v>
@@ -2230,7 +2207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +2242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2294,18 +2271,18 @@
         <v>143</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2335,12 +2312,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -2352,10 +2329,10 @@
         <v>145</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>150</v>
@@ -2364,13 +2341,13 @@
         <v>147</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -2399,13 +2376,13 @@
         <v>143</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -2425,7 +2402,7 @@
         <v>146</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>150</v>
@@ -2440,7 +2417,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2475,7 +2452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2504,18 +2481,18 @@
         <v>143</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -2545,7 +2522,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -2580,7 +2557,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -2600,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>150</v>
@@ -2615,7 +2592,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -2632,10 +2609,10 @@
         <v>145</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>150</v>
@@ -2650,7 +2627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -2670,7 +2647,7 @@
         <v>145</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>150</v>
@@ -2679,13 +2656,13 @@
         <v>147</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -2702,10 +2679,10 @@
         <v>152</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>150</v>
@@ -2714,13 +2691,13 @@
         <v>152</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -2740,7 +2717,7 @@
         <v>146</v>
       </c>
       <c r="G40" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>150</v>
@@ -2755,7 +2732,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -2775,7 +2752,7 @@
         <v>146</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>152</v>
@@ -2790,7 +2767,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2807,10 +2784,10 @@
         <v>145</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>150</v>
@@ -2825,7 +2802,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -2845,7 +2822,7 @@
         <v>146</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>150</v>
@@ -2860,12 +2837,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -2895,7 +2872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -2915,7 +2892,7 @@
         <v>145</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>150</v>
@@ -2930,7 +2907,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -2950,7 +2927,7 @@
         <v>145</v>
       </c>
       <c r="G46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>150</v>
@@ -2959,13 +2936,13 @@
         <v>147</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -3000,12 +2977,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -3035,7 +3012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
@@ -3049,19 +3026,19 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>152</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>143</v>
@@ -3070,12 +3047,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -3099,13 +3076,13 @@
         <v>143</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -3125,7 +3102,7 @@
         <v>146</v>
       </c>
       <c r="G51" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>150</v>
@@ -3140,7 +3117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -3160,7 +3137,7 @@
         <v>145</v>
       </c>
       <c r="G52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>150</v>
@@ -3175,7 +3152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -3195,7 +3172,7 @@
         <v>146</v>
       </c>
       <c r="G53" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>150</v>
@@ -3210,7 +3187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -3230,7 +3207,7 @@
         <v>146</v>
       </c>
       <c r="G54" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>152</v>
@@ -3239,13 +3216,13 @@
         <v>147</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -3262,10 +3239,10 @@
         <v>145</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>150</v>
@@ -3274,18 +3251,18 @@
         <v>147</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -3300,7 +3277,7 @@
         <v>146</v>
       </c>
       <c r="G56" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>150</v>
@@ -3309,18 +3286,18 @@
         <v>147</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -3334,8 +3311,8 @@
       <c r="F57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>143</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>143</v>
@@ -3350,7 +3327,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3369,8 +3346,8 @@
       <c r="F58" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>143</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>143</v>
@@ -3385,7 +3362,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3381,8 @@
       <c r="F59" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>143</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>143</v>
@@ -3420,7 +3397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -3439,8 +3416,8 @@
       <c r="F60" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>143</v>
+      <c r="G60" s="3">
+        <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>143</v>
@@ -3455,7 +3432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3474,8 +3451,8 @@
       <c r="F61" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>143</v>
+      <c r="G61" s="3">
+        <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>143</v>
@@ -3490,7 +3467,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -3507,10 +3484,10 @@
         <v>145</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>150</v>
@@ -3525,7 +3502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -3542,10 +3519,10 @@
         <v>145</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>150</v>
@@ -3560,7 +3537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
@@ -3577,10 +3554,10 @@
         <v>145</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G64" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>152</v>
@@ -3595,7 +3572,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
@@ -3612,10 +3589,10 @@
         <v>145</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>152</v>
@@ -3630,7 +3607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -3650,7 +3627,7 @@
         <v>146</v>
       </c>
       <c r="G66" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>152</v>
@@ -3665,12 +3642,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -3682,10 +3659,10 @@
         <v>145</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G67" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>150</v>
@@ -3700,7 +3677,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
@@ -3735,12 +3712,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -3752,10 +3729,10 @@
         <v>152</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>150</v>
@@ -3770,7 +3747,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3799,18 +3776,18 @@
         <v>143</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -3825,7 +3802,7 @@
         <v>146</v>
       </c>
       <c r="G71" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>150</v>
@@ -3840,12 +3817,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3875,12 +3852,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -3895,7 +3872,7 @@
         <v>145</v>
       </c>
       <c r="G73" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>150</v>
@@ -3910,7 +3887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
@@ -3945,12 +3922,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -3980,7 +3957,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
@@ -4000,7 +3977,7 @@
         <v>146</v>
       </c>
       <c r="G76" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>150</v>
@@ -4009,18 +3986,18 @@
         <v>147</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -4035,7 +4012,7 @@
         <v>145</v>
       </c>
       <c r="G77" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>150</v>
@@ -4050,7 +4027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
@@ -4079,18 +4056,18 @@
         <v>143</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -4102,10 +4079,10 @@
         <v>145</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>150</v>
@@ -4120,7 +4097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
@@ -4156,7 +4133,7 @@
       </c>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
@@ -4185,18 +4162,18 @@
         <v>143</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -4211,7 +4188,7 @@
         <v>146</v>
       </c>
       <c r="G82" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>150</v>
@@ -4220,13 +4197,13 @@
         <v>147</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -4243,10 +4220,10 @@
         <v>145</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G83" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>150</v>
@@ -4261,12 +4238,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="3">
         <v>0</v>
@@ -4281,7 +4258,7 @@
         <v>143</v>
       </c>
       <c r="G84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>150</v>
@@ -4290,13 +4267,13 @@
         <v>147</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
@@ -4316,7 +4293,7 @@
         <v>146</v>
       </c>
       <c r="G85" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>150</v>
@@ -4331,7 +4308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -4351,7 +4328,7 @@
         <v>146</v>
       </c>
       <c r="G86" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>152</v>
@@ -4366,12 +4343,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="3">
         <v>0</v>
@@ -4395,13 +4372,13 @@
         <v>143</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
@@ -4421,7 +4398,7 @@
         <v>146</v>
       </c>
       <c r="G88" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>152</v>
@@ -4436,7 +4413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
@@ -4456,7 +4433,7 @@
         <v>146</v>
       </c>
       <c r="G89" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>150</v>
@@ -4471,7 +4448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -4500,18 +4477,18 @@
         <v>143</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -4526,7 +4503,7 @@
         <v>146</v>
       </c>
       <c r="G91" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>152</v>
@@ -4541,233 +4518,232 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BU Thesis Data.xlsx
+++ b/BU Thesis Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ReshmaSatish/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B268DD-2266-5A48-B4B2-39D94F696879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9722A6-E866-4547-BB60-93880732152D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{57D64691-856B-DC4F-978F-AF8DF8D4B8EF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="201">
   <si>
     <t>Bone Specimen</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bisecting Fracture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONE HACKLE </t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A26DB19-946D-5849-9D12-F89F99B53C3B}">
   <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="109" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,103 +4525,553 @@
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="B92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92" s="3">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="B93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="B94" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="3">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="B95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="3">
+        <v>4</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="3">
+        <v>3</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="3">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="3">
+        <v>5</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G100" s="3">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="3">
+        <v>2</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
